--- a/api_routes.xlsx
+++ b/api_routes.xlsx
@@ -1,40 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739C5310-BC04-4B53-82D3-D74F647BD3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{2E6067A5-A621-479D-8A03-8A3493ECFCB4}"/>
+    <workbookView windowWidth="23145" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+  <si>
+    <t>Social Media Api</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
   <si>
     <t>Methods</t>
   </si>
@@ -45,15 +31,18 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>Social Media Api</t>
-  </si>
-  <si>
     <t>post</t>
   </si>
   <si>
+    <t>/api/register</t>
+  </si>
+  <si>
     <t>name,email,password,password_confirmation</t>
   </si>
   <si>
+    <t>/api/login</t>
+  </si>
+  <si>
     <t>email,password</t>
   </si>
   <si>
@@ -63,104 +52,112 @@
     <t>Authenticated routes</t>
   </si>
   <si>
+    <t>/api/logout</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>/api/register</t>
-  </si>
-  <si>
-    <t>/api/login</t>
-  </si>
-  <si>
-    <t>/api/logout</t>
-  </si>
-  <si>
     <t>/api/profiles</t>
   </si>
   <si>
+    <t xml:space="preserve">⚠️ Rplace {id} with the id of required table </t>
+  </si>
+  <si>
     <t>/api/profiles/{id}</t>
   </si>
   <si>
     <t>put</t>
   </si>
   <si>
+    <t>/api/profiles/{id}/update</t>
+  </si>
+  <si>
     <t>⚠️if PUT method not work then use POST mathod and pass one more parameter :{ "_method":"put"}</t>
   </si>
   <si>
     <t>delete</t>
   </si>
   <si>
-    <t>/api/profiles/{id}/update</t>
-  </si>
-  <si>
     <t>/api/profiles/{id}/delete</t>
   </si>
   <si>
     <t>/api/profiles/{id}/privacy</t>
   </si>
   <si>
-    <t xml:space="preserve">⚠️ Rplace {id} with the id of required table </t>
-  </si>
-  <si>
-    <t>/user/{id}/follow</t>
-  </si>
-  <si>
-    <t>/user/{id}/unfollow</t>
-  </si>
-  <si>
-    <t>/user/following</t>
+    <t>privacy</t>
+  </si>
+  <si>
+    <t>⚠️ Privacy can be only public or private</t>
+  </si>
+  <si>
+    <t>/api/user/{id}/follow</t>
+  </si>
+  <si>
+    <t>/api/user/{id}/unfollow</t>
+  </si>
+  <si>
+    <t>/api/user/{id}/followers</t>
+  </si>
+  <si>
+    <t>/api/user/following</t>
   </si>
   <si>
     <t>/accept-request/{id}</t>
   </si>
   <si>
-    <t>/user/{id}/followers</t>
-  </si>
-  <si>
-    <t>/posts</t>
-  </si>
-  <si>
-    <t>/posts/user/{id}</t>
-  </si>
-  <si>
-    <t>/posts/{id}/update</t>
-  </si>
-  <si>
-    <t>/posts/{id}/delete</t>
-  </si>
-  <si>
-    <t>/likes</t>
-  </si>
-  <si>
-    <t>/likes/{id}</t>
+    <t>/api/posts</t>
+  </si>
+  <si>
+    <t>/api/posts/user/{id}</t>
   </si>
   <si>
     <t>content,media[]</t>
   </si>
   <si>
+    <t>/api/posts/{id}/update</t>
+  </si>
+  <si>
+    <t>/api/posts/{id}/delete</t>
+  </si>
+  <si>
+    <t>/api/likes</t>
+  </si>
+  <si>
     <t>post_id</t>
+  </si>
+  <si>
+    <t>/api/likes/{id}</t>
+  </si>
+  <si>
+    <t>/api/comments</t>
+  </si>
+  <si>
+    <t>post_id,parent_id,content</t>
+  </si>
+  <si>
+    <t>/api/comments/{id}/reply</t>
+  </si>
+  <si>
+    <t>content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,23 +165,182 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFCE9178"/>
       <name val="Docs-Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,19 +355,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,18 +391,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -242,84 +584,364 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>329929</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>187054</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D06B51-AD31-03EB-9601-20CF4DBB9863}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9248775" y="2114550"/>
-          <a:ext cx="4301854" cy="1590675"/>
+          <a:off x="10048875" y="2505075"/>
+          <a:ext cx="4234815" cy="1590675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -343,27 +965,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{080FA868-D61E-5028-4F42-2474BAF1AA11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9382126" y="209494"/>
-          <a:ext cx="4029074" cy="1792060"/>
+          <a:off x="10325100" y="208915"/>
+          <a:ext cx="3962400" cy="1792605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -418,7 +1034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -451,26 +1067,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -503,23 +1102,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,252 +1243,283 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB03C1C-3D8A-4E8C-AD56-E93D59515C53}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="37.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="48.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="48.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="10" t="s">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="10" t="s">
-        <v>4</v>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="10" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="10" t="s">
-        <v>4</v>
+      <c r="A25" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="10" t="s">
-        <v>4</v>
+      <c r="A30" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="8" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -915,7 +1528,8 @@
     <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>